--- a/DataSet/SignOut.xlsx
+++ b/DataSet/SignOut.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sign Out" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>Open log in page and keeping user's email address in field (check on Stay signed in)</t>
   </si>
   <si>
-    <t>qa01@yopmail.com</t>
+    <t>sc_qa_auto01_signin@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -73,6 +73,7 @@
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="13.2"/>
@@ -411,7 +412,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
